--- a/File.xlsx
+++ b/File.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,52 +543,260 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Static Test Kit</t>
+          <t>Test  Kitttttttt888</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Static Vendor</t>
+          <t>Test Vendor Inc.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>STATIC001</t>
+          <t>CAT-1234555</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>99.99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4C</t>
+          <t>-20°C</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lab A</t>
+          <t>Freer A, Shelf 3</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://test.com</t>
+          <t>http://example.com/product</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Test Protocol</t>
+          <t>Follow standard assay protocol v1.2</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://test.com/pdf</t>
+          <t>http://example.com/protocol.pdf</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Test content</t>
+          <t>This is a test record inserted for Excel append testing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Test  Kitttttttt888</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Test Vendor Inc.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CAT-1234555</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>99.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-20°C</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Freer A, Shelf 3</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>http://example.com/product</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Follow standard assay protocol v1.2</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>http://example.com/protocol.pdf</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>This is a test record inserted for Excel append testing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Tedfdfdsfst  Kitttttttt888</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Test Vendor Inc.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CAT-1234555</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>99.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>-20°C</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Freer A, Shelf 3</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>http://example.com/product</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Follow standard assay protocol v1.2</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>http://example.com/protocol.pdf</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>This is a test record inserted for Excel append testing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Tedfdfdsfst  Kitttttttt888</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Test Vendor Inc.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CAT-1234555</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>99.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-20°C</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Freer A, Shelf 3</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>http://example.com/product</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Follow standard assay protocol v1.2</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>http://example.com/protocol.pdf</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>This is a test record inserted for Excel append testing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Tedfdfdsfst  Kitttttttt888</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Test Vendor Inc.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CAT-1234555</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>99.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-20°C</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Freer A, Shelf 3</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>http://example.com/product</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Follow standard assay protocol v1.2</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>http://example.com/protocol.pdf</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>This is a test record inserted for Excel append testing.</t>
         </is>
       </c>
     </row>

--- a/File.xlsx
+++ b/File.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -800,6 +800,187 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CytoSelect™ 24-Well Cell Migration Assay (3 μm, Fluorometric Format)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>antibodies-online.com</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ABIN2344847</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>$715.00 Plus shipping costs $50.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4 °C</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Store all components at 4°C.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.antibodies-online.com/kit/2344849/CytoSelect+24-Well+Cell+Migration+Assay+3+m,+Fluorometric+Format/</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Under sterile conditions, allow the 24-well migration plate to warm up at room temperature for 10 minutes.
+1. Prepare a cell suspension containing 0.5-5.0 x 10^6 cells/mL in serum free media. Agents that inhibit or stimulate cell migration can be added directly to the cell suspension.
+2. Add 500 μL of media containing 10 % fetal bovine serum or desired chemoattractant(s) to the lower well of the migration plate.
+3. Add 300 μL of the cell suspension solution to the inside of each insert.
+4. Incubate for 1-24 hours in a cell culture incubator.
+5. Carefully aspirate the media from the inside of the insert. Transfer the insert to a clean well containing 200 μL of Cell Detachment Solution. Incubate 30 minutes at 37 °C. Note: Retain the medium in the 24-well migration plate that contains chemoattractant(s) and cells that migrated through the membrane and into the medium.
+6. Completely dislodge the cells from the underside of the membrane by gently tilting the insert several times in the detachment solution. Remove and discard the insert.
+7. Transfer 400 μL of the 500 μL medium solution containing migratory cells (step 5) to the well that contains 200 μL of Cell Detachment Solution for the same migration assay sample (step 7). Mix well, transfer 180 μL of the mixture to a 96-well plate. Note: This step combines cells that migrated through the membrane and into the medium, and migratory cells detached from the bottom side of the membrane by Cell Detachment Solution.
+8. Prepare sufficient 4X Lysis Buffer/CyQuant® GR dye solution for all samples by diluting the dye 1:75 in 4X Lysis Buffer (for example, add 5 μL dye to 370 μL of 4X Lysis Buffer).
+9. Add 60 μL of 4X Lysis Buffer/CyQuant® GR dye solution to each well of the 96-well plate containing migratory cells. Incubate 20 minutes at room temperature.
+10. Transfer 200 μL of the mixture to a 96-well plate suitable for fluorescence measurement. Read fluorescence with a fluorescence plate reader at 480 nm/520 nm.
+11. Restrictions: For Research Use only</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://pdf.antibodies-online.com/productsheets/ABIN2344847.pdf</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Order at www.antibodies-online.com | www.antikoerper-online.de | www.anticorps-enligne.fr | www.antibodies-online.cn
+International: +49 (0)241 95 163 153 | USA &amp; Canada: +1 877 302 8632 | support@antibodies-online.com
+Page 1/4 | Product datasheet for ABIN2344847 | 05/14/2025 | Copyright antibodies-online. All rights reserved.
+Datasheet for ABIN2344847
+CytoSelect™ 24-Well Cell Migration Assay (3 μm, Fluorometric
+Format)
+4 Publications 
+Go to Product page
+Overview
+Quantity: 12 tests
+Reactivity: Mammalian
+Application: Cellular Assay (CA)
+Product Details
+Brand: CytoSelect™
+Sample Type: Serum, Cell Samples
+Analytical Method: Quantitative
+Detection Method: Fluorometric
+Characteristics: CytoSelect™ Cell Migration Assay Kit utilizes polycarbonate membrane inserts (3 μm pore size)
+to assay the migratory properties of cells. The kit does not require you to prelabel the cells with
+Calcein AM or remove non-migratory cells (i.e. cotton swabbing). Any migratory cells are first
+dissociated from the membrane, then lysed and detected by the patented CyQuant® GR Dye
+(Invitrogen). CytoSelect™ Cell Migration Assay Kit provides a robust system for the quantitative
+determination of cell migration. This Trial Size kit contains sufficient reagents for the evaluation
+of 4 samples. The 3 μm pore size is optimal for leukocyte chemotaxis. However, in the case of
+epithelial and fibroblast, a larger pore size (8 μm) is recommended. The CytoSelect™ Cell
+Migration Assay Kit contains polycarbonate membrane inserts (3 μm pore size) in a 24-well
+plate. The membrane serves as a barrier to discriminate migratory cells from non- migratory
+cells. Migratory cells are able to extend protrusions towards chemoattractants (via actin
+cytoskeleton reorganization) and ultimately pass through the pores of the polycarbonate
+membrane. These migratory cells are then dissociated from the membrane and subsequently
+detected by the patented CyQuant® GR Dye (Invitrogen).
+Order at www.antibodies-online.com | www.antikoerper-online.de | www.anticorps-enligne.fr | www.antibodies-online.cn
+International: +49 (0)241 95 163 153 | USA &amp; Canada: +1 877 302 8632 | support@antibodies-online.com
+Page 2/4 | Product datasheet for ABIN2344847 | 05/14/2025 | Copyright antibodies-online. All rights reserved.
+Product Details
+Components: 24-well Migration Plate : One 24-well plate containing 4 cell culture inserts (3 μm pore size)1.
+Cell Detachment Solution : One 2 mL tube2.
+4X Lysis Buffer : One 2 mL tube3.
+CyQuant® GR Dye : One 10 μL tube4.
+Forceps : One each5.
+Material not included: Migratory cell lines1.
+Cell culture medium2.
+Serum free medium, such as DMEM containing 0.5 % BSA, 2 mM CaCl2 and 2 mM MgCl23.
+Cell culture incubator (37 °C, 5 % CO2 atmosphere)4.
+Light microscope5.
+96-well plate suitable for a fluorescence plate reader6.
+Fluorescence plate reader7.
+Target Details
+Background: Cell migration is a highly integrated, multistep process that orchestrates embryonic
+morphogenesis, tissue repair and regeneration. It plays a pivotal role in the disease progression
+of cancer, mental retardation, atherosclerosis, and arthritis. The initial response of a cell to a
+migration-promoting agent is to polarize and extend protrusions in the direction of the
+attractant, these protrusions can consist of large, broad lamellipodia or spike-like filopodia. In
+either case, these protrusions are driven by actin polymerization and can be stabilized by
+extracellular matrix (ECM) adhesion or cell-cell interactions (via transmembrane receptors).
+Application Details
+Application Notes: Optimal working dilution should be determined by the investigator.
+Comment: Fully quantify chemotaxis with no manual cell counting•
+Measure chemotaxis in less than 6 hours with most cell types•
+Membrane inserts are uncoated to allow use with any chemoattractant•
+Under sterile conditions, allow the 24-well migration plate to warm up at room temperature
+for 10 minutes.
+1.
+Prepare a cell suspension containing 0.5-5.0 x 10^6 cells/mL in serum free media. Agents that
+inhibit or stimulate cell migration can be added directly to the cell suspension.
+2.
+Add 500 μL of media containing 10 % fetal bovine serum or desired chemoattractant(s) to
+the lower well of the migration plate.
+3.
+Add 300 μL of the cell suspension solution to the inside of each insert.
+4.
+Incubate for 1-24 hours in a cell culture incubator.
+5.
+Carefully aspirate the media from the inside of the insert. Transfer the insert to a clean well
+containing 200 μL of Cell Detachment Solution. Incubate 30 minutes at 37 °C. Note: Retain
+the medium in the 24-well migration plate that contains chemoattractant(s) and cells that
+migrated through the membrane and into the medium.
+6.
+Completely dislodge the cells from the underside of the membrane by gently tilting the insert
+several times in the detachment solution. Remove and discard the insert.
+7.
+Transfer 400 μL of the 500 μL medium solution containing migratory cells (step 5) to the well
+that contains 200 μL of Cell Detachment Solution for the same migration assay sample (step
+7). Mix well, transfer 180 μL of the mixture to a 96-well plate. Note: This step combines cells
+that migrated through the membrane and into the medium, and migratory cells detached
+from the bottom side of the membrane by Cell Detachment Solution.
+8.
+Prepare sufficient 4X Lysis Buffer/CyQuant® GR dye solution for all samples by diluting the
+dice 1:75 in 4X Lysis Buffer (for example, add 5 μL dye to 370 μL of 4X Lysis Buffer).
+9.
+Add 60 μL of 4X Lysis Buffer/CyQuant® GR dye solution to each well of the 96-well plate
+containing migratory cells. Incubate 20 minutes at room temperature.
+10.
+Transfer 200 μL of the mixture a 96-well plate suitable for fluorescence measurement. Read
+fluorescence with a fluorescence plate reader at 480 nm/520 nm.
+11.
+Restrictions: For Research Use only
+Handling
+Storage: 4 °C
+Storage Comment: Store all components at 4°C.
+Publications
+S?oniecka, Le Roux, Zhou, Danielson: "Substance P Enhances Keratocyte Migration and
+Neutrophil Recruitment through Interleukin-8." in: Molecular pharmacology, Vol. 89, Issue 2, pp.
+215-25, (2016) (PubMed).
+Ilangkovan, Jantan, Mesaik, Bukhari: "Immunosuppressive effects of the standardized extract of
+Phyllanthus amarus on cellular immune responses in Wistar-Kyoto rats." in: Drug design,
+development and therapy, Vol. 9, pp. 4917-30, (2015) (PubMed).
+Roh, Kim, Kim, Lee, Lee, Jung, Park: "Synephrine inhibits eotaxin-1 expression via the STAT6
+signaling pathway." in: Molecules (Basel, Switzerland), Vol. 19, Issue 8, pp. 11883-95, (2014) (
+PubMed).
+Verma, Hoffmann, Kumar, Huang, Roe, Nguyen-Wu, Hashimoto, Hoffmann: "Selenoprotein K
+knockout mice exhibit deficient calcium flux in immune cells and impaired immune responses."
+Product cited in:
+Order at www.antibodies-online.com | www.antikoerper-online.de | www.anticorps-enligne.fr | www.antibodies-online.cn
+International: +49 (0)241 95 163 153 | USA &amp; Canada: +1 877 302 8632 | support@antibodies-online.com
+Page 4/4 | Product datasheet for ABIN2344847 | 05/14/2025 | Copyright antibodies-online. All rights reserved.
+Publications
+in: Journal of immunology (Baltimore, Md. : 1950), Vol. 186, Issue 4, pp. 2127-37, (2011) (
+PubMed).</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
